--- a/行程.xlsx
+++ b/行程.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyData\MyStudy\日本旅游\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyData\ToJapan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{681C2C1F-1079-4D6F-918B-840D35D8EDB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C1547B9-8595-4107-896F-7AECCC22E908}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="门票统计" sheetId="2" r:id="rId1"/>
-    <sheet name="729Sun京都南禅寺" sheetId="3" r:id="rId2"/>
-    <sheet name="730Mon清水寺" sheetId="4" r:id="rId3"/>
-    <sheet name="731Tue岚山" sheetId="5" r:id="rId4"/>
-    <sheet name="801Wes稻荷大社" sheetId="6" r:id="rId5"/>
-    <sheet name="802Thur白须神社" sheetId="7" r:id="rId6"/>
-    <sheet name="803Fri大阪" sheetId="8" r:id="rId7"/>
-    <sheet name="804Sat姬路城" sheetId="9" r:id="rId8"/>
-    <sheet name="805Sun奈良春日大社" sheetId="10" r:id="rId9"/>
+    <sheet name="总路线" sheetId="11" r:id="rId1"/>
+    <sheet name="门票统计" sheetId="2" r:id="rId2"/>
+    <sheet name="729Sun京都南禅寺" sheetId="3" r:id="rId3"/>
+    <sheet name="730Mon清水寺" sheetId="4" r:id="rId4"/>
+    <sheet name="731Tue岚山" sheetId="5" r:id="rId5"/>
+    <sheet name="801Wes稻荷大社" sheetId="6" r:id="rId6"/>
+    <sheet name="802Thur白须神社" sheetId="7" r:id="rId7"/>
+    <sheet name="803Fri大阪" sheetId="8" r:id="rId8"/>
+    <sheet name="804Sat姬路城" sheetId="9" r:id="rId9"/>
+    <sheet name="805Sun奈良春日大社" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="273">
   <si>
     <t>票</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3419,6 +3420,114 @@
       <t>2张京都巴士一日券</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆出发至大阪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达关西机场去京都
+游览东山北边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/28
+星期六</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/29
+星期天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/30
+星期一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山清水寺 等南边区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/31
+星期二</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻荷大社
+二条城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/8/1
+星期三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>延历寺
+白须神社</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/8/2
+星期四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去大阪
+游览大阪城
+摩天轮
+海游馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/8/3
+星期五</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姫路城
+花火大会</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/8/5
+星期天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>东大寺
+奈良公园-春日大社</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/8/6
+星期一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动漫街
+逛街
+梅田购物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清晨去机场回重庆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/8/7
+星期二</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3876,7 +3985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4147,6 +4256,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 着色 4 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4154,7 +4266,10 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="着色 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4604,6 +4719,194 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5524501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2482577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\((@65E$@B%UE_27ZY9X77[K.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B754E2D-7C04-4C91-B665-3239A944580E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2981326" y="419100"/>
+          <a:ext cx="5524500" cy="2482577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5514975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2372278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\%_HK~V~0`VDQT64E0`MKCAY.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562A16C6-4E82-4E1C-B4F0-382B4AD3D3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3000375" y="3162300"/>
+          <a:ext cx="5495925" cy="2353228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5543551</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2266035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\SAKZS7E]$[3[0SY{FR_2BTM.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC0DA5C-AAE4-45F0-B3C0-E9885939DF98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2981326" y="5553076"/>
+          <a:ext cx="5543550" cy="2266034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4655,7 +4958,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4748,7 +5051,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4885,7 +5188,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4934,7 +5237,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5423,7 +5726,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5517,6 +5820,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{25B834BB-9C99-4CE2-B4A2-C281D54AF509}" name="表9" displayName="表9" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12" xr:uid="{DF05C766-3EDE-4B8A-9D02-1B96931311E3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4F867B25-053D-400D-9A7A-A8CC99E3550D}" name="日期" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3142938E-02B2-4110-888F-0C12ECD3622C}" name="行程"/>
+    <tableColumn id="3" xr3:uid="{FC68011C-8E3F-484F-AA5C-3BD146423415}" name="天气"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A1:E31" totalsRowCount="1">
   <autoFilter ref="A1:E30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
@@ -5530,83 +5845,83 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表4" displayName="表4" ref="A1:F11" totalsRowCount="1">
   <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期" dataDxfId="37" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="时间" dataDxfId="36" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="行程" dataDxfId="35" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期" dataDxfId="38" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="时间" dataDxfId="37" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="行程" dataDxfId="36" totalsRowCellStyle="常规 2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="地点/交通说明" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="交通花费" totalsRowFunction="sum" dataDxfId="34" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="33" totalsRowCellStyle="常规 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表4_6" displayName="表4_6" ref="A1:F20" totalsRowCount="1">
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="时间" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="行程" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="地点/交通说明" totalsRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="交通花费" totalsRowDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="景点花费" totalsRowDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="交通花费" totalsRowFunction="sum" dataDxfId="35" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="34" totalsRowCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表6" displayName="表6" ref="A1:F8" totalsRowCount="1">
-  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表4_6" displayName="表4_6" ref="A1:F20" totalsRowCount="1">
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="日期" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="时间" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="行程" dataDxfId="25" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="地点/交通说明" dataDxfId="24" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="交通花费" totalsRowFunction="sum" totalsRowDxfId="23" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="景点花费" totalsRowFunction="sum" totalsRowDxfId="22" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="时间" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="行程" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="地点/交通说明" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="交通花费" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="景点花费" totalsRowDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表3_2" displayName="表3_2" ref="A1:F17" totalsRowCount="1" dataDxfId="21">
-  <autoFilter ref="A1:F16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表6" displayName="表6" ref="A1:F8" totalsRowCount="1">
+  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="日期" totalsRowLabel="花费" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="时间" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="行程" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="地点/交通说明" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="行程花费" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="日期" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="时间" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="行程" dataDxfId="26" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="地点/交通说明" dataDxfId="25" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="交通花费" totalsRowFunction="sum" totalsRowDxfId="24" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="景点花费" totalsRowFunction="sum" totalsRowDxfId="23" totalsRowCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表4_3" displayName="表4_3" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表3_2" displayName="表3_2" ref="A1:F17" totalsRowCount="1" dataDxfId="22">
+  <autoFilter ref="A1:F16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="日期" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="时间" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="行程" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="交通/地点攻略" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="行程花费" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="景点花费" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="日期" totalsRowLabel="花费" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="时间" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="行程" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="地点/交通说明" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="行程花费" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="表7" displayName="表7" ref="A1:F13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表4_3" displayName="表4_3" ref="A1:F10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="日期" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="时间" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="行程" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="交通/地点攻略" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="行程花费" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="景点花费" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="表7" displayName="表7" ref="A1:F13" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期"/>
@@ -5620,7 +5935,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{562F3D84-ED30-4669-AE3E-6B9818B03B6E}" name="表8" displayName="表8" ref="A1:F8" totalsRowShown="0">
   <autoFilter ref="A1:F8" xr:uid="{1E51D9DD-A5EC-473B-9D57-5F2D054B192E}"/>
   <tableColumns count="6">
@@ -5897,6 +6212,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AABB470-8B60-4DB3-B424-0B755C6A1021}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D101F7CB-B205-4E30-B768-646AB05646BE}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="38">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="46">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="37">
+        <v>0.3125</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
+      <c r="B7" s="37">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -6263,11 +6832,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6604,7 +7173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6803,7 +7372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -7096,7 +7665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7245,7 +7814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -7521,7 +8090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7697,7 +8266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
@@ -7888,133 +8457,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D101F7CB-B205-4E30-B768-646AB05646BE}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="69.44140625" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="38">
-        <v>0.26874999999999999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B4" s="46">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37">
-        <v>0.3125</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
-      <c r="B7" s="37">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/行程.xlsx
+++ b/行程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyData\ToJapan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C1547B9-8595-4107-896F-7AECCC22E908}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{695462B3-C6FF-4AB8-BEED-A74A686D23E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总路线" sheetId="11" r:id="rId1"/>
@@ -337,11 +337,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>河原町三条-南禅寺/永观堂道
-5号巴士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>游玩南禅寺</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3528,6 +3523,23 @@
     <t>2018/8/7
 星期二</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">河原町三条-南禅寺/永观堂道
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5号巴士</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3985,7 +3997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4210,6 +4222,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4256,8 +4271,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4267,9 +4282,6 @@
     <cellStyle name="着色 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4701,6 +4713,9 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4882,6 +4897,67 @@
         <a:xfrm>
           <a:off x="2981326" y="5553076"/>
           <a:ext cx="5543550" cy="2266034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5591175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2703444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\L}@4720P3935Q}~06`O{G7T.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D475DF19-6517-4D56-946A-722954F61B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2971800" y="8058151"/>
+          <a:ext cx="5600700" cy="2617718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,7 +5899,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{25B834BB-9C99-4CE2-B4A2-C281D54AF509}" name="表9" displayName="表9" ref="A1:C12" totalsRowShown="0">
   <autoFilter ref="A1:C12" xr:uid="{DF05C766-3EDE-4B8A-9D02-1B96931311E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F867B25-053D-400D-9A7A-A8CC99E3550D}" name="日期" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4F867B25-053D-400D-9A7A-A8CC99E3550D}" name="日期" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{3142938E-02B2-4110-888F-0C12ECD3622C}" name="行程"/>
     <tableColumn id="3" xr3:uid="{FC68011C-8E3F-484F-AA5C-3BD146423415}" name="天气"/>
   </tableColumns>
@@ -5849,12 +5925,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表4" displayName="表4" ref="A1:F11" totalsRowCount="1">
   <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期" dataDxfId="38" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="时间" dataDxfId="37" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="行程" dataDxfId="36" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="日期" dataDxfId="37" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="时间" dataDxfId="36" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="行程" dataDxfId="35" totalsRowCellStyle="常规 2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="地点/交通说明" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="交通花费" totalsRowFunction="sum" dataDxfId="35" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="34" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="交通花费" totalsRowFunction="sum" dataDxfId="34" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="33" totalsRowCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5864,12 +5940,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表4_6" displayName="表4_6" ref="A1:F20" totalsRowCount="1">
   <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="时间" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="行程" totalsRowDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="地点/交通说明" totalsRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="交通花费" totalsRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="景点花费" totalsRowDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="日期" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="时间" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="行程" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="地点/交通说明" totalsRowDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="交通花费" totalsRowDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="景点花费" totalsRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5881,47 +5957,47 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="日期" totalsRowCellStyle="常规 2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="时间" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="行程" dataDxfId="26" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="地点/交通说明" dataDxfId="25" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="交通花费" totalsRowFunction="sum" totalsRowDxfId="24" totalsRowCellStyle="常规 2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="景点花费" totalsRowFunction="sum" totalsRowDxfId="23" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="行程" dataDxfId="25" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="地点/交通说明" dataDxfId="24" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="交通花费" totalsRowFunction="sum" totalsRowDxfId="23" totalsRowCellStyle="常规 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="景点花费" totalsRowFunction="sum" totalsRowDxfId="22" totalsRowCellStyle="常规 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表3_2" displayName="表3_2" ref="A1:F17" totalsRowCount="1" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表3_2" displayName="表3_2" ref="A1:F17" totalsRowCount="1" dataDxfId="21">
   <autoFilter ref="A1:F16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="日期" totalsRowLabel="花费" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="时间" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="行程" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="地点/交通说明" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="行程花费" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="日期" totalsRowLabel="花费" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="时间" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="行程" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="地点/交通说明" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="行程花费" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="景点花费" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表4_3" displayName="表4_3" ref="A1:F10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表4_3" displayName="表4_3" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="日期" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="时间" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="行程" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="交通/地点攻略" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="行程花费" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="景点花费" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="日期" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="时间" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="行程" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="交通/地点攻略" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="行程花费" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="景点花费" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="表7" displayName="表7" ref="A1:F13" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="表7" displayName="表7" ref="A1:F13" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="日期"/>
@@ -6215,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AABB470-8B60-4DB3-B424-0B755C6A1021}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6228,101 +6304,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+    <row r="3" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="35" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+    <row r="4" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="B4" t="s">
         <v>256</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108" t="s">
+    <row r="6" spans="1:3" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="B5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="108" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="108" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="35" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="B10" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="35" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="92" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="B11" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="35" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6354,36 +6430,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="37">
         <v>0.25</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -6391,10 +6467,10 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -6402,10 +6478,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6413,10 +6489,10 @@
         <v>0.3125</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -6427,10 +6503,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
@@ -6438,10 +6514,10 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -6452,7 +6528,7 @@
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6836,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6871,7 +6947,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="54">
@@ -6887,15 +6963,15 @@
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="100">
+      <c r="A3" s="98"/>
+      <c r="B3" s="101">
         <f>B2+1.5/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="103" t="s">
+      <c r="C3" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="104" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="57">
@@ -6904,49 +6980,49 @@
       <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="59">
         <v>1240</v>
       </c>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="59"/>
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="104">
+      <c r="A6" s="98"/>
+      <c r="B6" s="105">
         <f>B3+1/24</f>
         <v>0.375</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="108" t="s">
         <v>225</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>226</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="62"/>
       <c r="F7" s="63"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="91">
         <v>0.4069444444444445</v>
       </c>
@@ -6958,19 +7034,19 @@
       <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="54">
         <v>0.46111111111111108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="87">
         <v>0.46875</v>
       </c>
@@ -6982,15 +7058,15 @@
       <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="54">
         <v>0.4826388888888889</v>
       </c>
       <c r="C11" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>228</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>229</v>
       </c>
       <c r="E11" s="55">
         <v>460</v>
@@ -6998,12 +7074,12 @@
       <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="82">
         <v>0.50347222222222221</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D12" s="64" t="s">
         <v>62</v>
@@ -7012,52 +7088,52 @@
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="54">
         <v>0.51041666666666663</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="87">
         <v>0.5625</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>65</v>
+      <c r="D14" s="109" t="s">
+        <v>272</v>
       </c>
       <c r="E14" s="59">
         <v>460</v>
       </c>
       <c r="F14" s="65"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
     </row>
     <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="86">
         <v>0.56597222222222221</v>
       </c>
       <c r="C15" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>67</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="69">
@@ -7065,18 +7141,18 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="94"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="82">
         <v>0.64583333333333337</v>
       </c>
       <c r="C16" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="66" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>69</v>
       </c>
       <c r="E16" s="59">
         <v>460</v>
@@ -7085,49 +7161,49 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="86">
         <v>0.66666666666666663</v>
       </c>
       <c r="C17" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>71</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="69">
         <v>500</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="94"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="82">
         <v>0.70833333333333337</v>
       </c>
       <c r="C18" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>72</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>73</v>
       </c>
       <c r="E18" s="59">
         <v>460</v>
       </c>
       <c r="F18" s="65"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="95"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="83">
         <v>0.72916666666666663</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="71"/>
@@ -7136,10 +7212,10 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="84"/>
       <c r="C20" s="80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="74">
@@ -7177,7 +7253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7193,36 +7269,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="29">
         <v>0.25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="27">
         <v>460</v>
@@ -7236,10 +7312,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27">
@@ -7253,10 +7329,10 @@
         <v>0.35416666666666663</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -7268,10 +7344,10 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27">
@@ -7285,7 +7361,7 @@
         <v>0.48611111111111105</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="27"/>
@@ -7298,10 +7374,10 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -7313,10 +7389,10 @@
         <v>0.62499999999999989</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27">
@@ -7330,10 +7406,10 @@
         <v>0.68749999999999989</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>239</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>240</v>
       </c>
       <c r="E9" s="27">
         <v>460</v>
@@ -7343,10 +7419,10 @@
     <row r="10" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="27"/>
@@ -7376,7 +7452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7391,36 +7467,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="29">
         <v>0.25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="27">
         <v>600</v>
@@ -7433,10 +7509,10 @@
         <v>0.27569444444444441</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="27">
         <v>320</v>
@@ -7449,10 +7525,10 @@
         <v>0.29236111111111107</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -7462,10 +7538,10 @@
         <v>0.3125</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -7475,7 +7551,7 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="27"/>
@@ -7486,10 +7562,10 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -7499,10 +7575,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -7512,10 +7588,10 @@
         <v>0.4375</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -7525,7 +7601,7 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="27"/>
@@ -7536,7 +7612,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="27"/>
@@ -7547,10 +7623,10 @@
         <v>0.46875</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27">
@@ -7563,7 +7639,7 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -7574,10 +7650,10 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -7587,10 +7663,10 @@
         <v>0.58402777777777781</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27">
@@ -7603,10 +7679,10 @@
         <v>0.62569444444444444</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -7617,10 +7693,10 @@
         <v>0.63958333333333328</v>
       </c>
       <c r="C17" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27">
@@ -7632,17 +7708,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>99</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>100</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -7685,36 +7761,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="43">
         <v>0.22916666666666666</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>190</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -7725,10 +7801,10 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="E3" s="27">
         <v>210</v>
@@ -7741,10 +7817,10 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>104</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -7755,10 +7831,10 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>106</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -7769,10 +7845,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="27">
         <f>140+230</f>
@@ -7785,10 +7861,10 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27">
@@ -7835,36 +7911,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="13">
         <v>0.35416666666666669</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="14"/>
@@ -7875,7 +7951,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="16">
@@ -7889,10 +7965,10 @@
         <v>0.40625</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14"/>
@@ -7903,10 +7979,10 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14">
@@ -7919,10 +7995,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14"/>
@@ -7933,10 +8009,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="16">
         <v>860</v>
@@ -7949,10 +8025,10 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="E8" s="16">
         <v>230</v>
@@ -7965,7 +8041,7 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
@@ -7977,10 +8053,10 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>131</v>
       </c>
       <c r="E10" s="16">
         <v>500</v>
@@ -7993,7 +8069,7 @@
         <v>0.51944444444444449</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="16"/>
@@ -8005,10 +8081,10 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="14"/>
@@ -8019,10 +8095,10 @@
         <v>0.5625</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="14"/>
@@ -8030,10 +8106,10 @@
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="16"/>
@@ -8043,7 +8119,7 @@
       <c r="A15" s="17"/>
       <c r="B15" s="13"/>
       <c r="C15" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="16">
@@ -8055,7 +8131,7 @@
       <c r="A16" s="17"/>
       <c r="B16" s="13"/>
       <c r="C16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="16">
@@ -8065,7 +8141,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="16"/>
@@ -8110,36 +8186,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="29">
         <v>0.22222222222222221</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>149</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -8150,10 +8226,10 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>151</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -8164,10 +8240,10 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>153</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -8178,10 +8254,10 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>155</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -8192,10 +8268,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>156</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>157</v>
       </c>
       <c r="E6" s="30">
         <v>630</v>
@@ -8208,10 +8284,10 @@
         <v>0.3125</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -8222,7 +8298,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="30"/>
@@ -8236,10 +8312,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -8250,7 +8326,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -8284,36 +8360,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="37">
         <v>0.27777777777777779</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8321,10 +8397,10 @@
         <v>0.28541666666666665</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>230</v>
@@ -8335,10 +8411,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>177</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8346,10 +8422,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8357,10 +8433,10 @@
         <v>0.36736111111111108</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -8368,7 +8444,7 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>170</v>
@@ -8379,10 +8455,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8">
         <v>1050</v>
@@ -8393,10 +8469,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -8405,7 +8481,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -8416,7 +8492,7 @@
         <v>0.5625</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>170</v>
@@ -8427,10 +8503,10 @@
         <v>0.63263888888888886</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -8438,15 +8514,15 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/行程.xlsx
+++ b/行程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyData\ToJapan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{695462B3-C6FF-4AB8-BEED-A74A686D23E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A10FAD43-B7A0-4423-B1E9-7BC0C42BDCBB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总路线" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="803Fri大阪" sheetId="8" r:id="rId8"/>
     <sheet name="804Sat姬路城" sheetId="9" r:id="rId9"/>
     <sheet name="805Sun奈良春日大社" sheetId="10" r:id="rId10"/>
+    <sheet name="806Mon大阪逛街" sheetId="12" r:id="rId11"/>
+    <sheet name="807Tue回重庆" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="302">
   <si>
     <t>票</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1161,15 +1163,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>出发至大阪城</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>游览大阪城</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开大阪城</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3417,10 +3411,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>天气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>重庆出发至大阪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3540,6 +3530,656 @@
       <t>5号巴士</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游览海游馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>离开大阪城
+乘坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中央线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去海游馆</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">步行至地铁站 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>森ノ宮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>森ノ宮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大阪港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+16分钟 （8 站） · </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">第3站台
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从大阪港下车后步行至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海游馆</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出发至大阪城
+乘坐地铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谷町线</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从酒店步行至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谷町九丁目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+乘坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谷町线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(上行2站路)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谷町四丁目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下车
+步行1.5公里进入大阪城</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>游览若草山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从若草山南入口上山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘坐巴士回近铁奈良</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴士站如下图所示，均可到近铁奈良站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘坐近铁回大阪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近铁奈良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近铁日本桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+最后一班晚上11:30</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>------</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通/地点说明</t>
+  </si>
+  <si>
+    <t>行程花费</t>
+  </si>
+  <si>
+    <t>心斋桥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅田大厦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道顿崛美食街</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动漫街二次元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本桥站往西南方向走一点
+难波站往东一大片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌地图上有标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/08/07
+星期二</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上车往西行驶至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>千日前线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地铁开动</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>到达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站
+步行至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南海难波</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出站之后往南走</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进南海难波站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开动</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达机场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>乘地铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>千日前线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南海难波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>站
+从酒店出发步行至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谷町九丁目</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>也可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接步行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去南海难波
+稍远但是可以乘坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一班南海電鐵</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从南海难波车站进来，直接走到后面坐电扶梯可以抵达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月台
+售票处在左邊，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间是自动改札口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，右边是商店UNIQLO
+搞清楚要乘坐的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空港急行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，下图中紅色框框的地方
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝底白色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字，就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月台号码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，
+這表示要到5号月台去乘坐 空港急行列車
+https://nicklee.tw/?p=904
+小气少年的介绍</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3997,7 +4637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4225,6 +4865,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4271,8 +4914,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4734,255 +5383,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5524501</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2482577</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\((@65E$@B%UE_27ZY9X77[K.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B754E2D-7C04-4C91-B665-3239A944580E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2981326" y="419100"/>
-          <a:ext cx="5524500" cy="2482577"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5514975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2372278</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\%_HK~V~0`VDQT64E0`MKCAY.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562A16C6-4E82-4E1C-B4F0-382B4AD3D3E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3000375" y="3162300"/>
-          <a:ext cx="5495925" cy="2353228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5543551</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2266035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\SAKZS7E]$[3[0SY{FR_2BTM.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC0DA5C-AAE4-45F0-B3C0-E9885939DF98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2981326" y="5553076"/>
-          <a:ext cx="5543550" cy="2266034"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2124075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5591175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2703444</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="D:\Program Files (x86)\Tencent\QQData\28554811\Image\C2C\L}@4720P3935Q}~06`O{G7T.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D475DF19-6517-4D56-946A-722954F61B3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2971800" y="8058151"/>
-          <a:ext cx="5600700" cy="2617718"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5034,7 +5434,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5127,7 +5527,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5264,7 +5664,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5277,7 +5677,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>580277</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>790081</xdr:rowOff>
+      <xdr:rowOff>161431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5313,7 +5713,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5802,7 +6202,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5858,7 +6258,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>255811</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>199111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5892,6 +6292,199 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4866265</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>151589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC52E76-E697-47F7-AE1C-EF435E32E29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8086725"/>
+          <a:ext cx="8076190" cy="6485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85248</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E16F9F-A9E9-4AB3-A80D-624A1F6176BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="0"/>
+          <a:ext cx="3819048" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1253519</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D5C344-4E99-436C-8170-46DC0D4A97B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2209800"/>
+          <a:ext cx="5444519" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662EDE97-26BE-46CA-8A22-DB5E7D15C731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="4152900"/>
+          <a:ext cx="7429500" cy="7372350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5901,7 +6494,36 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4F867B25-053D-400D-9A7A-A8CC99E3550D}" name="日期" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{3142938E-02B2-4110-888F-0C12ECD3622C}" name="行程"/>
-    <tableColumn id="3" xr3:uid="{FC68011C-8E3F-484F-AA5C-3BD146423415}" name="天气"/>
+    <tableColumn id="3" xr3:uid="{FC68011C-8E3F-484F-AA5C-3BD146423415}" name="注意事项"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{19012114-7E53-40AE-838D-C07F6D63F454}" name="表10" displayName="表10" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{44B1DBA4-9EF4-49C9-B45F-1C4B15843598}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D49C86CA-04BE-4F1A-8C7B-DD22EBB3161F}" name="日期"/>
+    <tableColumn id="2" xr3:uid="{CC8F112F-066E-44F8-99C5-68050749D0A1}" name="时间"/>
+    <tableColumn id="3" xr3:uid="{DA64B73B-0C01-4712-8665-1B6D52A08BAE}" name="行程"/>
+    <tableColumn id="4" xr3:uid="{E3CFE34D-7B33-4E95-AEA3-3222C311DDF1}" name="交通/地点说明"/>
+    <tableColumn id="5" xr3:uid="{CCA8DC65-14BF-4F2E-B2DE-442C7396ACA8}" name="行程花费"/>
+    <tableColumn id="6" xr3:uid="{CEF73485-67B8-4FD3-BA7F-61DE075655AB}" name="景点花费"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1F6E7041-F970-4AA6-B4B0-55292C118CFC}" name="表11" displayName="表11" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{F70D16A6-DA57-44CF-9AA1-5D3FCA1A366A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E20EB4AD-C53D-45A0-8F22-EDE6A792DCB7}" name="日期"/>
+    <tableColumn id="2" xr3:uid="{BFC88D31-0C67-4DBD-A975-6FECEF53D5DD}" name="时间"/>
+    <tableColumn id="3" xr3:uid="{2D54381D-C3F1-42E9-B2AB-76F0E3403ECC}" name="行程"/>
+    <tableColumn id="4" xr3:uid="{43B1C722-713E-406F-8D10-7A69E47861B5}" name="交通/地点说明"/>
+    <tableColumn id="5" xr3:uid="{4995AD0C-354F-4062-8E96-D84C6BADACFB}" name="行程花费"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5982,8 +6604,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表4_3" displayName="表4_3" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:F10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表4_3" displayName="表4_3" ref="A1:F11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="日期" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="时间" dataDxfId="5"/>
@@ -6012,15 +6634,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{562F3D84-ED30-4669-AE3E-6B9818B03B6E}" name="表8" displayName="表8" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8" xr:uid="{1E51D9DD-A5EC-473B-9D57-5F2D054B192E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{562F3D84-ED30-4669-AE3E-6B9818B03B6E}" name="表8" displayName="表8" ref="A1:F12" totalsRowCount="1">
+  <autoFilter ref="A1:F11" xr:uid="{1E51D9DD-A5EC-473B-9D57-5F2D054B192E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FEAC8805-8AD2-4C62-83F6-E747C3302802}" name="日期"/>
     <tableColumn id="2" xr3:uid="{EA4A5320-F8E1-4893-BC3C-B6FC181726F7}" name="时间"/>
     <tableColumn id="3" xr3:uid="{FC552F24-08F8-4BD4-84E1-0BAFD2FFD5FF}" name="行程"/>
     <tableColumn id="4" xr3:uid="{3020467F-D6CF-473E-B0AC-6D61FA53532C}" name="交通/地点说明"/>
-    <tableColumn id="5" xr3:uid="{EA1F47BE-CB1D-4A6D-9365-CA9532A537D7}" name="行程花费"/>
-    <tableColumn id="6" xr3:uid="{00260B5D-971A-4ED0-A111-571EDC5F4204}" name="景点花费"/>
+    <tableColumn id="5" xr3:uid="{EA1F47BE-CB1D-4A6D-9365-CA9532A537D7}" name="行程花费" totalsRowFunction="sum"/>
+    <tableColumn id="6" xr3:uid="{00260B5D-971A-4ED0-A111-571EDC5F4204}" name="景点花费" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6292,7 +6914,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6304,120 +6926,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
         <v>253</v>
       </c>
-      <c r="B2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="92" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D101F7CB-B205-4E30-B768-646AB05646BE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6430,36 +7051,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="37">
         <v>0.25</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -6467,10 +7088,13 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="E3">
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -6478,10 +7102,13 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="E4">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6489,10 +7116,10 @@
         <v>0.3125</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -6503,10 +7130,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
@@ -6514,10 +7141,10 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -6528,7 +7155,238 @@
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="37">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="111" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f>SUBTOTAL(109,表8[行程花费])</f>
+        <v>1540</v>
+      </c>
+      <c r="F12">
+        <f>SUBTOTAL(109,表8[景点花费])</f>
+        <v>1650</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFCE28A-4E55-4D2F-95BA-CE81F2F2F0E8}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D169BD2-7F86-41FF-A5EC-B915990E5935}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="37">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="37">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.3">
+      <c r="B5" s="37">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="37">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6545,7 +7403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6913,7 +7771,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6947,7 +7805,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="54">
@@ -6963,15 +7821,15 @@
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
-      <c r="B3" s="101">
+      <c r="A3" s="99"/>
+      <c r="B3" s="102">
         <f>B2+1.5/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="105" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="57">
@@ -6980,49 +7838,49 @@
       <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="59">
         <v>1240</v>
       </c>
       <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="98"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="59"/>
       <c r="F5" s="61"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
-      <c r="B6" s="105">
+      <c r="A6" s="99"/>
+      <c r="B6" s="106">
         <f>B3+1/24</f>
         <v>0.375</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>225</v>
+      <c r="C6" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>223</v>
       </c>
       <c r="E6" s="62"/>
       <c r="F6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="62"/>
       <c r="F7" s="63"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="91">
         <v>0.4069444444444445</v>
       </c>
@@ -7034,19 +7892,19 @@
       <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="54">
         <v>0.46111111111111108</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="87">
         <v>0.46875</v>
       </c>
@@ -7058,15 +7916,15 @@
       <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="54">
         <v>0.4826388888888889</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E11" s="55">
         <v>460</v>
@@ -7074,12 +7932,12 @@
       <c r="F11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="82">
         <v>0.50347222222222221</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="64" t="s">
         <v>62</v>
@@ -7088,44 +7946,44 @@
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="98"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="54">
         <v>0.51041666666666663</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="94"/>
+      <c r="H13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="87">
         <v>0.5625</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="109" t="s">
-        <v>272</v>
+      <c r="D14" s="93" t="s">
+        <v>269</v>
       </c>
       <c r="E14" s="59">
         <v>460</v>
       </c>
       <c r="F14" s="65"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
     </row>
     <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="86">
         <v>0.56597222222222221</v>
       </c>
@@ -7141,10 +7999,10 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="95"/>
+      <c r="I15" s="96"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="82">
         <v>0.64583333333333337</v>
       </c>
@@ -7161,7 +8019,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="86">
         <v>0.66666666666666663</v>
       </c>
@@ -7176,11 +8034,11 @@
         <v>500</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="95"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="96"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="82">
         <v>0.70833333333333337</v>
       </c>
@@ -7194,11 +8052,11 @@
         <v>460</v>
       </c>
       <c r="F18" s="65"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="96"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="83">
         <v>0.72916666666666663</v>
       </c>
@@ -7212,7 +8070,7 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="100"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="84"/>
       <c r="C20" s="80" t="s">
         <v>74</v>
@@ -7295,10 +8153,10 @@
         <v>0.25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" s="27">
         <v>460</v>
@@ -7312,10 +8170,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27">
@@ -7329,7 +8187,7 @@
         <v>0.35416666666666663</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>82</v>
@@ -7344,7 +8202,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>83</v>
@@ -7361,7 +8219,7 @@
         <v>0.48611111111111105</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="27"/>
@@ -7374,7 +8232,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>84</v>
@@ -7389,10 +8247,10 @@
         <v>0.62499999999999989</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27">
@@ -7406,10 +8264,10 @@
         <v>0.68749999999999989</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="27">
         <v>460</v>
@@ -7452,7 +8310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7493,7 +8351,7 @@
         <v>0.25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>88</v>
@@ -7509,7 +8367,7 @@
         <v>0.27569444444444441</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>89</v>
@@ -7525,7 +8383,7 @@
         <v>0.29236111111111107</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>90</v>
@@ -7538,7 +8396,7 @@
         <v>0.3125</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>91</v>
@@ -7575,7 +8433,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>95</v>
@@ -7588,10 +8446,10 @@
         <v>0.4375</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -7601,7 +8459,7 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="27"/>
@@ -7612,7 +8470,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="27"/>
@@ -7623,10 +8481,10 @@
         <v>0.46875</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27">
@@ -7639,7 +8497,7 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -7650,10 +8508,10 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -7663,7 +8521,7 @@
         <v>0.58402777777777781</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>96</v>
@@ -7679,7 +8537,7 @@
         <v>0.62569444444444444</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>97</v>
@@ -7693,10 +8551,10 @@
         <v>0.63958333333333328</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27">
@@ -7787,10 +8645,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -7801,10 +8659,10 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3" s="27">
         <v>210</v>
@@ -7845,10 +8703,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="27">
         <f>140+230</f>
@@ -7894,8 +8752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8168,17 +9026,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.88671875" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.5546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -8287,21 +9145,25 @@
         <v>157</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="30">
+        <v>180</v>
+      </c>
       <c r="F8" s="30">
         <v>600</v>
       </c>
@@ -8312,32 +9174,49 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="29">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="30">
+        <v>280</v>
+      </c>
       <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="110">
+        <v>0.4375</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8360,36 +9239,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="37">
         <v>0.27777777777777779</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8397,10 +9276,10 @@
         <v>0.28541666666666665</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3">
         <v>230</v>
@@ -8411,10 +9290,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8422,10 +9301,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8433,10 +9312,10 @@
         <v>0.36736111111111108</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -8444,7 +9323,7 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>170</v>
@@ -8455,10 +9334,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F8">
         <v>1050</v>
@@ -8469,10 +9348,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -8481,7 +9360,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -8492,7 +9371,7 @@
         <v>0.5625</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>170</v>
@@ -8503,10 +9382,10 @@
         <v>0.63263888888888886</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -8514,15 +9393,15 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/行程.xlsx
+++ b/行程.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\MyData\ToJapan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A10FAD43-B7A0-4423-B1E9-7BC0C42BDCBB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{839830E8-8180-4607-A9C1-5B6F71BD74FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总路线" sheetId="11" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="304">
   <si>
     <t>票</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -310,11 +310,6 @@
   </si>
   <si>
     <t>关西机场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>关西空港站
-二楼JR绿色窗口</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3322,95 +3317,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ICOCA+HARUKA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-购买岚山小火车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵯峨野2号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">车票
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">大阪JR一日券
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购买</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2张京都巴士一日券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>重庆出发至大阪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4181,12 +4087,205 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">关西国际机场　第1客运大楼及第2客运大楼
+关西Tourist Information Center（关西国际机场）
+http://www.tourist-information-center.jp/kansai/sc/　
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关西国际机场　第2客运大楼
+关西观光情报广场 http://www.izumisano-machidokoro.jp/ch-k/　</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICOCA+HARUKA(IC Card KANSAI ONE PASS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+购买岚山小火车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵯峨野2号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车票
+购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">大阪JR一日券
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2张京都巴士一日券
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3张大阪地铁一日券</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>关西空港站
+二楼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JR绿色窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(3000+1600)*2
+每张KANSAI ONE PASS包含2500元和500押金</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大阪地铁一日券
+数量待定</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4383,6 +4482,20 @@
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4637,7 +4750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4789,9 +4902,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4868,6 +4978,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="5" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4901,9 +5029,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4914,14 +5039,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5391,8 +5510,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>915819</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6258,8 +6377,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>255811</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>199111</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6438,15 +6557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>153360</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6475,8 +6594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="4152900"/>
-          <a:ext cx="7429500" cy="7372350"/>
+          <a:off x="5362575" y="4733925"/>
+          <a:ext cx="6316035" cy="6267450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6926,101 +7045,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="B4" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="s">
         <v>252</v>
       </c>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="35" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B7" s="35" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B8" s="35" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
+    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="B10" s="35" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="92" t="s">
+    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B11" s="35" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
         <v>265</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7037,8 +7156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D101F7CB-B205-4E30-B768-646AB05646BE}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7051,36 +7170,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="37">
         <v>0.25</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -7088,10 +7207,10 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3">
         <v>560</v>
@@ -7102,10 +7221,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>210</v>
@@ -7116,10 +7235,10 @@
         <v>0.3125</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -7130,10 +7249,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.3">
@@ -7141,21 +7260,21 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="37">
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,10 +7282,10 @@
         <v>0.5625</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F9">
         <v>150</v>
@@ -7177,24 +7296,24 @@
         <v>0.625</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="111" t="s">
-        <v>282</v>
+      <c r="B11" s="97" t="s">
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11">
         <v>560</v>
@@ -7237,51 +7356,51 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
         <v>283</v>
-      </c>
-      <c r="E1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7297,8 +7416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D169BD2-7F86-41FF-A5EC-B915990E5935}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7311,33 +7430,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="37">
         <v>0.20833333333333334</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -7345,10 +7464,10 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -7356,10 +7475,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.3">
@@ -7367,10 +7486,10 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -7378,7 +7497,7 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -7386,7 +7505,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7768,16 +7887,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
@@ -7788,7 +7907,7 @@
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -7805,7 +7924,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="103" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="54">
@@ -7821,284 +7940,298 @@
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="102">
+      <c r="A3" s="104"/>
+      <c r="B3" s="107">
         <f>B2+1.5/24</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="103" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="57">
-        <v>7200</v>
-      </c>
-      <c r="F3" s="58"/>
+      <c r="C3" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="94">
+        <v>9200</v>
+      </c>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="59">
+      <c r="A4" s="104"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="58">
         <v>1240</v>
       </c>
-      <c r="F4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="61"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="106">
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
+    </row>
+    <row r="6" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="104"/>
+      <c r="B6" s="93">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="104"/>
+      <c r="B7" s="110">
         <f>B3+1/24</f>
         <v>0.375</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C7" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="104"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="104"/>
+      <c r="B9" s="90">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="104"/>
+      <c r="B10" s="54">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="91">
-        <v>0.4069444444444445</v>
-      </c>
-      <c r="C8" s="76" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="104"/>
+      <c r="B11" s="86">
+        <v>0.46875</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="54">
-        <v>0.46111111111111108</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="54">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="87">
-        <v>0.46875</v>
-      </c>
-      <c r="C10" s="77" t="s">
+      <c r="D12" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="55">
+        <v>460</v>
+      </c>
+      <c r="F12" s="66"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="104"/>
+      <c r="B13" s="81">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="54">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="55">
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="104"/>
+      <c r="B14" s="54">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="100"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="104"/>
+      <c r="B15" s="86">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="58">
         <v>460</v>
       </c>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="82">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="54">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="95"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="87">
-        <v>0.5625</v>
-      </c>
-      <c r="C14" s="76" t="s">
+      <c r="F15" s="64"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101"/>
+    </row>
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="104"/>
+      <c r="B16" s="85">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="59">
+      <c r="D16" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68">
+        <v>800</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="104"/>
+      <c r="B17" s="81">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="58">
         <v>460</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
-    </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="86">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69">
-        <v>800</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="96"/>
-    </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
-      <c r="B16" s="82">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="66" t="s">
+      <c r="F17" s="64"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="104"/>
+      <c r="B18" s="85">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="59">
+      <c r="D18" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68">
+        <v>500</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="104"/>
+      <c r="B19" s="81">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="58">
         <v>460</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="86">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69">
-        <v>500</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="96"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="82">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="64" t="s">
+      <c r="F19" s="64"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="101"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="105"/>
+      <c r="B20" s="82">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C20" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="59">
-        <v>460</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="96"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="83">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C19" s="79" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="106"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="101"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74">
-        <f>SUM(E11:E18)</f>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73">
+        <f>SUM(E12:E19)</f>
         <v>1840</v>
       </c>
-      <c r="F20" s="75">
-        <f>SUM(F11:F18)</f>
+      <c r="F21" s="74">
+        <f>SUM(F12:F19)</f>
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A2:A21"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8112,7 +8245,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8127,36 +8260,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="29">
         <v>0.25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>237</v>
       </c>
       <c r="E2" s="27">
         <v>460</v>
@@ -8170,10 +8303,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27">
@@ -8187,10 +8320,10 @@
         <v>0.35416666666666663</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -8202,10 +8335,10 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27">
@@ -8219,7 +8352,7 @@
         <v>0.48611111111111105</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="27"/>
@@ -8232,10 +8365,10 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -8247,10 +8380,10 @@
         <v>0.62499999999999989</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27">
@@ -8264,10 +8397,10 @@
         <v>0.68749999999999989</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>236</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>237</v>
       </c>
       <c r="E9" s="27">
         <v>460</v>
@@ -8276,11 +8409,11 @@
     </row>
     <row r="10" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="27"/>
@@ -8325,36 +8458,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="29">
         <v>0.25</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="27">
         <v>600</v>
@@ -8367,10 +8500,10 @@
         <v>0.27569444444444441</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="27">
         <v>320</v>
@@ -8383,10 +8516,10 @@
         <v>0.29236111111111107</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -8396,10 +8529,10 @@
         <v>0.3125</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -8409,7 +8542,7 @@
         <v>0.375</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="27"/>
@@ -8420,10 +8553,10 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -8433,10 +8566,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -8446,10 +8579,10 @@
         <v>0.4375</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>213</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -8459,7 +8592,7 @@
         <v>0.44027777777777777</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="27"/>
@@ -8470,7 +8603,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="27"/>
@@ -8481,10 +8614,10 @@
         <v>0.46875</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27">
@@ -8497,21 +8630,21 @@
         <v>0.53125</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="90">
+      <c r="B14" s="89">
         <f>B13+1/24/60*50</f>
         <v>0.56597222222222221</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -8521,10 +8654,10 @@
         <v>0.58402777777777781</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27">
@@ -8537,10 +8670,10 @@
         <v>0.62569444444444444</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -8551,10 +8684,10 @@
         <v>0.63958333333333328</v>
       </c>
       <c r="C17" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27">
@@ -8566,17 +8699,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>98</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>99</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -8619,36 +8752,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="43">
         <v>0.22916666666666666</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>187</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
@@ -8659,10 +8792,10 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>188</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>189</v>
       </c>
       <c r="E3" s="27">
         <v>210</v>
@@ -8675,10 +8808,10 @@
         <v>0.24027777777777778</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>103</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -8689,10 +8822,10 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -8703,10 +8836,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="27">
         <f>140+230</f>
@@ -8719,10 +8852,10 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C7" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27">
@@ -8769,36 +8902,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="13">
         <v>0.35416666666666669</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="14"/>
@@ -8809,7 +8942,7 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="16">
@@ -8823,10 +8956,10 @@
         <v>0.40625</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="14"/>
@@ -8837,10 +8970,10 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="14">
@@ -8853,10 +8986,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="14"/>
@@ -8867,10 +9000,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="E7" s="16">
         <v>860</v>
@@ -8883,10 +9016,10 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="E8" s="16">
         <v>230</v>
@@ -8899,7 +9032,7 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
@@ -8911,10 +9044,10 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="E10" s="16">
         <v>500</v>
@@ -8927,7 +9060,7 @@
         <v>0.51944444444444449</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="16"/>
@@ -8939,10 +9072,10 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="14"/>
@@ -8953,10 +9086,10 @@
         <v>0.5625</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="14"/>
@@ -8964,10 +9097,10 @@
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="16"/>
@@ -8977,7 +9110,7 @@
       <c r="A15" s="17"/>
       <c r="B15" s="13"/>
       <c r="C15" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="16">
@@ -8989,7 +9122,7 @@
       <c r="A16" s="17"/>
       <c r="B16" s="13"/>
       <c r="C16" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="16">
@@ -8999,7 +9132,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="16"/>
@@ -9028,8 +9161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9044,36 +9177,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="29">
         <v>0.22222222222222221</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>148</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -9084,10 +9217,10 @@
         <v>0.24097222222222223</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>150</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -9098,10 +9231,10 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -9112,10 +9245,10 @@
         <v>0.26874999999999999</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -9126,10 +9259,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="E6" s="30">
         <v>630</v>
@@ -9142,10 +9275,10 @@
         <v>0.3125</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -9156,10 +9289,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="30">
         <v>180</v>
@@ -9174,10 +9307,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -9188,10 +9321,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E10" s="30">
         <v>280</v>
@@ -9200,11 +9333,11 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
-      <c r="B11" s="110">
+      <c r="B11" s="96">
         <v>0.4375</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -9225,8 +9358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9239,36 +9372,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="C1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="37">
         <v>0.27777777777777779</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9276,10 +9409,10 @@
         <v>0.28541666666666665</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>230</v>
@@ -9290,10 +9423,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>174</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9301,10 +9434,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9312,10 +9445,10 @@
         <v>0.36736111111111108</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -9323,7 +9456,7 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>170</v>
@@ -9334,10 +9467,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8">
         <v>1050</v>
@@ -9348,10 +9481,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -9360,7 +9493,7 @@
         <v>0.5</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -9371,7 +9504,7 @@
         <v>0.5625</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <v>170</v>
@@ -9382,10 +9515,10 @@
         <v>0.63263888888888886</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -9393,15 +9526,15 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
